--- a/TP4/ej6/traza.xlsx
+++ b/TP4/ej6/traza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codigos\Algoritmica-Programacion-II\TP4\ej6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultad\AyP2\codigos\TP4\ej6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E26048-B2EF-43B6-B921-E3BD0AC92A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09057D3-2539-46F4-A365-1CD0147635BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E682BA14-EF0F-4893-AB68-E920073F7E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E682BA14-EF0F-4893-AB68-E920073F7E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>numbers []</t>
   </si>
@@ -48,6 +48,48 @@
   </si>
   <si>
     <t>quicksort(int low, int high)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pivot</t>
+  </si>
+  <si>
+    <t>while(i&lt;=j)</t>
+  </si>
+  <si>
+    <t>while(numbers[i]&lt;pivot)</t>
+  </si>
+  <si>
+    <t>i++</t>
+  </si>
+  <si>
+    <t>while(numbers[j] &gt;pivot)</t>
+  </si>
+  <si>
+    <t>j--</t>
+  </si>
+  <si>
+    <t>i &lt;=j</t>
+  </si>
+  <si>
+    <t>exchange(i,j)</t>
+  </si>
+  <si>
+    <t>low &lt; j</t>
+  </si>
+  <si>
+    <t>quicksort(low, j)</t>
+  </si>
+  <si>
+    <t>quicksort( I, high)</t>
+  </si>
+  <si>
+    <t>I &lt; high</t>
   </si>
 </sst>
 </file>
@@ -115,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,31 +473,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33190313-CBB1-467D-9789-4EA0DD9FFA76}">
-  <dimension ref="B5:D6"/>
+  <dimension ref="B5:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="23.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="23.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="16" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="2"/>
+    <col min="16" max="16" width="18" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>

--- a/TP4/ej6/traza.xlsx
+++ b/TP4/ej6/traza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultad\AyP2\codigos\TP4\ej6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codigos\Algoritmica-Programacion-II\TP4\ej6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09057D3-2539-46F4-A365-1CD0147635BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABADBC-6FCD-4136-BC42-46B303B39B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E682BA14-EF0F-4893-AB68-E920073F7E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01093C68-7F77-4F00-B7EE-DF2CCA7BBD73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,67 +36,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>numbers []</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>{ 4, 2, 8, 7, 1, 9, 5 }</t>
-  </si>
-  <si>
-    <t>quicksort(int low, int high)</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pivot</t>
-  </si>
-  <si>
-    <t>while(i&lt;=j)</t>
-  </si>
-  <si>
-    <t>while(numbers[i]&lt;pivot)</t>
-  </si>
-  <si>
-    <t>i++</t>
-  </si>
-  <si>
-    <t>while(numbers[j] &gt;pivot)</t>
-  </si>
-  <si>
-    <t>j--</t>
-  </si>
-  <si>
-    <t>i &lt;=j</t>
-  </si>
-  <si>
-    <t>exchange(i,j)</t>
-  </si>
-  <si>
-    <t>low &lt; j</t>
-  </si>
-  <si>
-    <t>quicksort(low, j)</t>
-  </si>
-  <si>
-    <t>quicksort( I, high)</t>
-  </si>
-  <si>
-    <t>I &lt; high</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+  <si>
+    <t>PASO</t>
+  </si>
+  <si>
+    <t>LLAMADA(LOW,HIGH)</t>
+  </si>
+  <si>
+    <t>SUBARRAY</t>
+  </si>
+  <si>
+    <t>PIVOT</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ACCION(COMPARACION/INTERCAMBIO)</t>
+  </si>
+  <si>
+    <t>ARRAY RESULTANTE</t>
+  </si>
+  <si>
+    <t>(0, 6)</t>
+  </si>
+  <si>
+    <t>[4,2,8,7,1,9,5]</t>
+  </si>
+  <si>
+    <t>4 &lt; 7, 2 &lt; 7, 8 &gt;=7 -&gt; i=2</t>
+  </si>
+  <si>
+    <t>5 &lt;= 7 -&gt; j = 6</t>
+  </si>
+  <si>
+    <t>[4,2,5,7,1,9,8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 &gt;= 7 -&gt; i=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 &gt; 7 -&gt;j =4 </t>
+  </si>
+  <si>
+    <t>1 &lt;= 7 -&gt; j=4</t>
+  </si>
+  <si>
+    <t>[4,2,5,1,7,9,8]</t>
+  </si>
+  <si>
+    <t>(0, 3)</t>
+  </si>
+  <si>
+    <t>[4,2,5,1]</t>
+  </si>
+  <si>
+    <t>4 &gt;= 2 -&gt; i=0</t>
+  </si>
+  <si>
+    <t>1 &lt;= 2 -&gt; j=3</t>
+  </si>
+  <si>
+    <t>intercambio(4, 1)</t>
+  </si>
+  <si>
+    <t>intercambio(8, 5)</t>
+  </si>
+  <si>
+    <t>intercambio(7, 1)</t>
+  </si>
+  <si>
+    <t>[1,2,5,4]</t>
+  </si>
+  <si>
+    <t>2 &gt;= 2 -&gt; i=1</t>
+  </si>
+  <si>
+    <t>5 &gt; 2 -&gt; j = 1</t>
+  </si>
+  <si>
+    <t>intercambio(2, 2) (sin cambio)</t>
+  </si>
+  <si>
+    <t>(2, 3)</t>
+  </si>
+  <si>
+    <t>[5,4]</t>
+  </si>
+  <si>
+    <t>5 &gt;= 5 -&gt;i=2</t>
+  </si>
+  <si>
+    <t>4 &lt;= 5 -&gt; j=3</t>
+  </si>
+  <si>
+    <t>intercambio(5,4)</t>
+  </si>
+  <si>
+    <t>[1,2,4,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i &gt; j -&gt; Fin repetición</t>
+  </si>
+  <si>
+    <t>i &gt; j -&gt; Fin repetición</t>
+  </si>
+  <si>
+    <t>(4, 6)</t>
+  </si>
+  <si>
+    <t>[7,9,8]</t>
+  </si>
+  <si>
+    <t>[1,2,4,5,7,9,8]</t>
+  </si>
+  <si>
+    <t>7 &lt;  9 -&gt; i=5</t>
+  </si>
+  <si>
+    <t>9 &gt;= 9 -&gt;i=5</t>
+  </si>
+  <si>
+    <t>8 &lt;= 9 -&gt; j=6</t>
+  </si>
+  <si>
+    <t>intercambio(9,8)</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,7,8,9]</t>
+  </si>
+  <si>
+    <t>(4, 5)</t>
+  </si>
+  <si>
+    <t>[7,8]</t>
+  </si>
+  <si>
+    <t>7 &gt;= 7 -&gt; i = 4</t>
+  </si>
+  <si>
+    <t>8 &gt;7 -&gt; j = 4</t>
+  </si>
+  <si>
+    <t>7 &lt;= 7 -&gt; j=4</t>
+  </si>
+  <si>
+    <t>intercambio(7,7) (sin cambio)</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>En el peor de los casos la complejidad seria O(n^2). Esto ocurre si las particiones son muy desbalanceadas(por ejemplo, cuando el pivote es el elemento más pequeño o más grande).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,20 +208,80 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF373A3C"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,21 +289,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="3" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="4" builtinId="10"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,92 +703,625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33190313-CBB1-467D-9789-4EA0DD9FFA76}">
-  <dimension ref="B5:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F9E491-BDEE-41DC-88AC-077AD1364166}">
+  <dimension ref="B2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="23.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="23.140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2"/>
-    <col min="16" max="16" width="18" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="2" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="2" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4">
         <v>7</v>
       </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B33:I35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
